--- a/cypress/downloads/Notice Types.xlsx
+++ b/cypress/downloads/Notice Types.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="81">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -49,6 +49,33 @@
     <t xml:space="preserve">updated</t>
   </si>
   <si>
+    <t xml:space="preserve">test - 18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test - 017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ad Hoc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test - 016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test - 015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test - 013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vvc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test -12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test - 0111</t>
+  </si>
+  <si>
     <t xml:space="preserve">Test -010</t>
   </si>
   <si>
@@ -64,9 +91,6 @@
     <t xml:space="preserve">Test - 007</t>
   </si>
   <si>
-    <t xml:space="preserve">Ad Hoc</t>
-  </si>
-  <si>
     <t xml:space="preserve">Yes</t>
   </si>
   <si>
@@ -233,12 +257,6 @@
   </si>
   <si>
     <t xml:space="preserve">Disclosure informing participants the plan may be a Safe Harbor plan for the upcoming plan year.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Summary Plan Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disclosure providing a summary of all your plan's provisions such as eligibility, vesting, and distribution options.</t>
   </si>
 </sst>
 </file>
@@ -303,7 +321,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane state="frozen" ySplit="1" topLeftCell="A2"/>
@@ -373,17 +391,17 @@
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F3">
              </c>
     </row>
     <row r="4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -394,16 +412,15 @@
       <c r="E4" t="s">
         <v>9</v>
       </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
+      <c r="F4">
+             </c>
     </row>
     <row r="5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -422,10 +439,10 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
@@ -438,7 +455,7 @@
     </row>
     <row r="7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -452,15 +469,16 @@
       <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="F7">
-             </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -476,7 +494,7 @@
     </row>
     <row r="9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
@@ -490,12 +508,13 @@
       <c r="E9" t="s">
         <v>9</v>
       </c>
-      <c r="F9">
-             </c>
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
@@ -514,13 +533,13 @@
     </row>
     <row r="11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s">
         <v>8</v>
@@ -533,7 +552,7 @@
     </row>
     <row r="12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
@@ -542,36 +561,37 @@
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12">
-             </c>
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="F13">
              </c>
     </row>
     <row r="14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>7</v>
@@ -585,12 +605,13 @@
       <c r="E14" t="s">
         <v>9</v>
       </c>
-      <c r="F14">
-             </c>
+      <c r="F14" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>7</v>
@@ -609,13 +630,13 @@
     </row>
     <row r="16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
         <v>8</v>
@@ -623,53 +644,50 @@
       <c r="E16" t="s">
         <v>9</v>
       </c>
-      <c r="F16" t="s">
-        <v>28</v>
-      </c>
+      <c r="F16">
+             </c>
     </row>
     <row r="17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D17" t="s">
         <v>8</v>
       </c>
       <c r="E17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" t="s">
-        <v>30</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="F17">
+             </c>
     </row>
     <row r="18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C18" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D18" t="s">
         <v>8</v>
       </c>
       <c r="E18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" t="s">
-        <v>30</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="F18">
+             </c>
     </row>
     <row r="19" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
         <v>7</v>
@@ -683,39 +701,37 @@
       <c r="E19" t="s">
         <v>9</v>
       </c>
-      <c r="F19" t="s">
-        <v>33</v>
-      </c>
+      <c r="F19">
+             </c>
     </row>
     <row r="20" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D20" t="s">
         <v>8</v>
       </c>
       <c r="E20" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" t="s">
-        <v>30</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="F20">
+             </c>
     </row>
     <row r="21" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
         <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
         <v>8</v>
@@ -723,79 +739,75 @@
       <c r="E21" t="s">
         <v>9</v>
       </c>
-      <c r="F21" t="s">
-        <v>36</v>
-      </c>
+      <c r="F21">
+             </c>
     </row>
     <row r="22" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B22" t="s">
         <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D22" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E22" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" t="s">
-        <v>38</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F22">
+             </c>
     </row>
     <row r="23" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B23" t="s">
         <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E23" t="s">
         <v>9</v>
       </c>
-      <c r="F23" t="s">
-        <v>40</v>
-      </c>
+      <c r="F23">
+             </c>
     </row>
     <row r="24" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B24" t="s">
         <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D24" t="s">
         <v>8</v>
       </c>
       <c r="E24" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" t="s">
-        <v>42</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="F24">
+             </c>
     </row>
     <row r="25" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D25" t="s">
         <v>8</v>
@@ -803,19 +815,18 @@
       <c r="E25" t="s">
         <v>9</v>
       </c>
-      <c r="F25" t="s">
-        <v>44</v>
-      </c>
+      <c r="F25">
+             </c>
     </row>
     <row r="26" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D26" t="s">
         <v>8</v>
@@ -824,58 +835,58 @@
         <v>9</v>
       </c>
       <c r="F26" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B27" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D27" t="s">
         <v>8</v>
       </c>
       <c r="E27" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="F27" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D28" t="s">
         <v>8</v>
       </c>
       <c r="E28" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="F28" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D29" t="s">
         <v>8</v>
@@ -884,38 +895,38 @@
         <v>9</v>
       </c>
       <c r="F29" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="B30" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D30" t="s">
         <v>8</v>
       </c>
       <c r="E30" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="F30" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B31" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D31" t="s">
         <v>8</v>
@@ -924,38 +935,38 @@
         <v>9</v>
       </c>
       <c r="F31" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="B32" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D32" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E32" t="s">
         <v>9</v>
       </c>
       <c r="F32" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B33" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D33" t="s">
         <v>8</v>
@@ -964,55 +975,55 @@
         <v>9</v>
       </c>
       <c r="F33" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="B34" t="s">
         <v>7</v>
       </c>
       <c r="C34" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D34" t="s">
         <v>8</v>
       </c>
       <c r="E34" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="F34" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="B35" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D35" t="s">
         <v>8</v>
       </c>
       <c r="E35" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F35" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B36" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C36" t="s">
         <v>8</v>
@@ -1024,58 +1035,58 @@
         <v>9</v>
       </c>
       <c r="F36" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="B37" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D37" t="s">
         <v>8</v>
       </c>
       <c r="E37" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F37" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C38" t="s">
         <v>8</v>
       </c>
       <c r="D38" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E38" t="s">
         <v>9</v>
       </c>
       <c r="F38" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B39" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C39" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D39" t="s">
         <v>8</v>
@@ -1084,15 +1095,15 @@
         <v>9</v>
       </c>
       <c r="F39" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="B40" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C40" t="s">
         <v>8</v>
@@ -1104,47 +1115,227 @@
         <v>9</v>
       </c>
       <c r="F40" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C41" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D41" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E41" t="s">
         <v>9</v>
       </c>
       <c r="F41" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>65</v>
+      </c>
+      <c r="B42" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" t="s">
+        <v>25</v>
+      </c>
+      <c r="D42" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>67</v>
+      </c>
+      <c r="B43" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" t="s">
+        <v>25</v>
+      </c>
+      <c r="D43" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>69</v>
+      </c>
+      <c r="B44" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" t="s">
+        <v>25</v>
+      </c>
+      <c r="D44" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>71</v>
+      </c>
+      <c r="B45" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" t="s">
+        <v>21</v>
+      </c>
+      <c r="F45" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>73</v>
       </c>
-      <c r="B42" t="s">
-        <v>16</v>
-      </c>
-      <c r="C42" t="s">
-        <v>8</v>
-      </c>
-      <c r="D42" t="s">
-        <v>8</v>
-      </c>
-      <c r="E42" t="s">
-        <v>9</v>
-      </c>
-      <c r="F42" t="s">
+      <c r="B46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" t="s">
         <v>74</v>
+      </c>
+    </row>
+    <row r="47" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" t="s">
+        <v>21</v>
+      </c>
+      <c r="F47" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>75</v>
+      </c>
+      <c r="B48" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" t="s">
+        <v>25</v>
+      </c>
+      <c r="E48" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>77</v>
+      </c>
+      <c r="B49" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49" t="s">
+        <v>25</v>
+      </c>
+      <c r="D49" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>47</v>
+      </c>
+      <c r="B50" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>79</v>
+      </c>
+      <c r="B51" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" t="s">
+        <v>25</v>
+      </c>
+      <c r="D51" t="s">
+        <v>25</v>
+      </c>
+      <c r="E51" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
